--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/guanplus/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/guanplus-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -92,9 +92,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,35 +377,36 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>13683139989</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +39,42 @@
   </si>
   <si>
     <t>qq123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18612198503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangcaiyan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunhong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chenmeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683139989</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +414,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -395,18 +432,82 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>13683139989</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/guanplus-test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doghome/work/guanplus-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dev" sheetId="1" r:id="rId1"/>
+    <sheet name="stage" sheetId="2" r:id="rId2"/>
+    <sheet name="pro" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +76,72 @@
   </si>
   <si>
     <t>13683139989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此用户不存在</t>
+    <rPh sb="0" eb="1">
+      <t>ci yong hu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cun zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不正确</t>
+    <rPh sb="0" eb="1">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu zheng q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写手机号</t>
+    <rPh sb="0" eb="1">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tian xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou ji hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请填写密码</t>
+    <rPh sb="0" eb="1">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tian xie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机格式不正确</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu zheng q</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,15 +490,18 @@
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -439,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -447,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
   </sheetData>
@@ -513,4 +583,84 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>13683139980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>13683139989</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13683139989</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>